--- a/ProjectDocuments/Nhom12/PhanCongThanhVienNhom12.xlsx
+++ b/ProjectDocuments/Nhom12/PhanCongThanhVienNhom12.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="65">
   <si>
     <t>STT</t>
   </si>
@@ -211,9 +211,6 @@
   </si>
   <si>
     <t>15/5/2010</t>
-  </si>
-  <si>
-    <t>16/15/2010</t>
   </si>
 </sst>
 </file>
@@ -224,21 +221,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -277,14 +274,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -720,23 +717,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="E44" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="66.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="66.69921875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" style="33" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.8984375" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.3984375" style="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.69921875" style="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="33">
+    <row r="1" spans="1:9" ht="31.8">
       <c r="A1" s="9" t="s">
         <v>9</v>
       </c>
@@ -811,7 +808,7 @@
       <c r="H7" s="31"/>
       <c r="I7" s="31"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75">
+    <row r="8" spans="1:9" ht="15.6">
       <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
@@ -857,7 +854,7 @@
         <v>36</v>
       </c>
       <c r="F9" s="29">
-        <v>40363</v>
+        <v>40275</v>
       </c>
       <c r="G9" s="29" t="s">
         <v>44</v>
@@ -886,7 +883,7 @@
         <v>36</v>
       </c>
       <c r="F10" s="29">
-        <v>40363</v>
+        <v>40275</v>
       </c>
       <c r="G10" s="29" t="s">
         <v>44</v>
@@ -915,7 +912,7 @@
         <v>36</v>
       </c>
       <c r="F11" s="29">
-        <v>40363</v>
+        <v>40275</v>
       </c>
       <c r="G11" s="29" t="s">
         <v>44</v>
@@ -944,7 +941,7 @@
         <v>36</v>
       </c>
       <c r="F12" s="29">
-        <v>40363</v>
+        <v>40275</v>
       </c>
       <c r="G12" s="29" t="s">
         <v>44</v>
@@ -973,7 +970,7 @@
         <v>36</v>
       </c>
       <c r="F13" s="29">
-        <v>40363</v>
+        <v>40275</v>
       </c>
       <c r="G13" s="29" t="s">
         <v>44</v>
@@ -992,7 +989,7 @@
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75">
+    <row r="16" spans="1:9" ht="15.6">
       <c r="A16" s="7" t="s">
         <v>7</v>
       </c>
@@ -1173,7 +1170,7 @@
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
     </row>
-    <row r="24" spans="1:9" ht="15.75">
+    <row r="24" spans="1:9" ht="15.6">
       <c r="A24" s="7" t="s">
         <v>7</v>
       </c>
@@ -1354,7 +1351,7 @@
       <c r="B31" s="3"/>
       <c r="C31" s="4"/>
     </row>
-    <row r="32" spans="1:9" ht="15.75">
+    <row r="32" spans="1:9" ht="15.6">
       <c r="A32" s="7" t="s">
         <v>7</v>
       </c>
@@ -1403,7 +1400,7 @@
         <v>12</v>
       </c>
       <c r="G33" s="17">
-        <v>40364</v>
+        <v>40305</v>
       </c>
       <c r="H33" s="34" t="s">
         <v>43</v>
@@ -1432,7 +1429,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="17">
-        <v>40364</v>
+        <v>40305</v>
       </c>
       <c r="H34" s="34" t="s">
         <v>43</v>
@@ -1461,7 +1458,7 @@
         <v>12</v>
       </c>
       <c r="G35" s="17">
-        <v>40364</v>
+        <v>40305</v>
       </c>
       <c r="H35" s="34" t="s">
         <v>43</v>
@@ -1490,7 +1487,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="17">
-        <v>40364</v>
+        <v>40305</v>
       </c>
       <c r="H36" s="34" t="s">
         <v>43</v>
@@ -1519,7 +1516,7 @@
         <v>12</v>
       </c>
       <c r="G37" s="17">
-        <v>40364</v>
+        <v>40305</v>
       </c>
       <c r="H37" s="34" t="s">
         <v>43</v>
@@ -1535,7 +1532,7 @@
       <c r="B39" s="3"/>
       <c r="C39" s="4"/>
     </row>
-    <row r="40" spans="1:9" ht="15.75">
+    <row r="40" spans="1:9" ht="15.6">
       <c r="A40" s="7" t="s">
         <v>7</v>
       </c>
@@ -1581,7 +1578,7 @@
         <v>52</v>
       </c>
       <c r="F41" s="17">
-        <v>40395</v>
+        <v>40306</v>
       </c>
       <c r="G41" s="18" t="s">
         <v>64</v>
@@ -1610,7 +1607,7 @@
         <v>52</v>
       </c>
       <c r="F42" s="17">
-        <v>40395</v>
+        <v>40306</v>
       </c>
       <c r="G42" s="18" t="s">
         <v>64</v>
@@ -1639,7 +1636,7 @@
         <v>52</v>
       </c>
       <c r="F43" s="17">
-        <v>40395</v>
+        <v>40306</v>
       </c>
       <c r="G43" s="18" t="s">
         <v>64</v>
@@ -1668,7 +1665,7 @@
         <v>52</v>
       </c>
       <c r="F44" s="17">
-        <v>40395</v>
+        <v>40306</v>
       </c>
       <c r="G44" s="18" t="s">
         <v>64</v>
@@ -1697,7 +1694,7 @@
         <v>52</v>
       </c>
       <c r="F45" s="17">
-        <v>40395</v>
+        <v>40306</v>
       </c>
       <c r="G45" s="18" t="s">
         <v>64</v>
@@ -1716,7 +1713,7 @@
       <c r="B47" s="3"/>
       <c r="C47" s="4"/>
     </row>
-    <row r="48" spans="1:9" ht="15.75">
+    <row r="48" spans="1:9" ht="15.6">
       <c r="A48" s="7" t="s">
         <v>7</v>
       </c>
@@ -1761,8 +1758,8 @@
       <c r="E49" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="F49" s="18" t="s">
-        <v>65</v>
+      <c r="F49" s="18">
+        <v>40314</v>
       </c>
       <c r="G49" s="18" t="s">
         <v>40</v>
@@ -1790,8 +1787,8 @@
       <c r="E50" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="F50" s="18" t="s">
-        <v>65</v>
+      <c r="F50" s="18">
+        <v>40314</v>
       </c>
       <c r="G50" s="18" t="s">
         <v>40</v>
@@ -1819,8 +1816,8 @@
       <c r="E51" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="F51" s="18" t="s">
-        <v>65</v>
+      <c r="F51" s="18">
+        <v>40314</v>
       </c>
       <c r="G51" s="18" t="s">
         <v>40</v>
@@ -1848,8 +1845,8 @@
       <c r="E52" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="F52" s="18" t="s">
-        <v>65</v>
+      <c r="F52" s="18">
+        <v>40314</v>
       </c>
       <c r="G52" s="18" t="s">
         <v>40</v>
@@ -1877,8 +1874,8 @@
       <c r="E53" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="F53" s="18" t="s">
-        <v>65</v>
+      <c r="F53" s="18">
+        <v>40314</v>
       </c>
       <c r="G53" s="18" t="s">
         <v>40</v>
@@ -1897,7 +1894,7 @@
       <c r="B55" s="3"/>
       <c r="C55" s="4"/>
     </row>
-    <row r="56" spans="1:9" ht="15.75">
+    <row r="56" spans="1:9" ht="15.6">
       <c r="A56" s="7" t="s">
         <v>7</v>
       </c>
@@ -1946,7 +1943,7 @@
         <v>41</v>
       </c>
       <c r="G57" s="17">
-        <v>40274</v>
+        <v>40333</v>
       </c>
       <c r="H57" s="34" t="s">
         <v>43</v>
@@ -1975,7 +1972,7 @@
         <v>41</v>
       </c>
       <c r="G58" s="17">
-        <v>40274</v>
+        <v>40333</v>
       </c>
       <c r="H58" s="34" t="s">
         <v>43</v>
@@ -2004,7 +2001,7 @@
         <v>41</v>
       </c>
       <c r="G59" s="17">
-        <v>40274</v>
+        <v>40333</v>
       </c>
       <c r="H59" s="34" t="s">
         <v>43</v>
@@ -2033,7 +2030,7 @@
         <v>41</v>
       </c>
       <c r="G60" s="17">
-        <v>40274</v>
+        <v>40333</v>
       </c>
       <c r="H60" s="34" t="s">
         <v>43</v>
@@ -2062,7 +2059,7 @@
         <v>41</v>
       </c>
       <c r="G61" s="17">
-        <v>40274</v>
+        <v>40333</v>
       </c>
       <c r="H61" s="34" t="s">
         <v>43</v>
@@ -2083,7 +2080,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2095,7 +2092,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
